--- a/ICTProject/정보융합대학.xlsx
+++ b/ICTProject/정보융합대학.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IDBLAB\PycharmProjects\ICTProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IDBLAB\Desktop\Crawling\ICTProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515320AB-80D9-458F-B86E-D385FB8F32ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE995A09-2020-41C9-80A5-253B589AA181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="3720" windowWidth="27740" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5500" yWindow="2430" windowWidth="27740" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1395,14 +1395,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="37.4140625" customWidth="1"/>
-    <col min="3" max="3" width="37.5" customWidth="1"/>
-    <col min="4" max="4" width="40.5" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="38.4140625" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
